--- a/data/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
+++ b/data/Contact_Recreation/WairarawaStreamatWaitarereBeach_cb13089eb0.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10612,7 +10612,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11938,7 +11938,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12757,7 +12757,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13342,7 +13342,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13732,7 +13732,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14746,7 +14746,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15214,7 +15214,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15526,7 +15526,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16150,7 +16150,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16189,7 +16189,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16306,7 +16306,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16384,7 +16384,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16852,7 +16852,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17164,7 +17164,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17710,7 +17710,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17827,7 +17827,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17905,7 +17905,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18022,7 +18022,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
